--- a/Refinitiv/Analysis/SG/SG_Descriptive Statistics.xlsx
+++ b/Refinitiv/Analysis/SG/SG_Descriptive Statistics.xlsx
@@ -824,66 +824,6 @@
       <c r="D3" t="n">
         <v>52</v>
       </c>
-      <c r="G3" t="n">
-        <v>238</v>
-      </c>
-      <c r="H3" t="n">
-        <v>237</v>
-      </c>
-      <c r="I3" t="n">
-        <v>238</v>
-      </c>
-      <c r="J3" t="n">
-        <v>238</v>
-      </c>
-      <c r="K3" t="n">
-        <v>237</v>
-      </c>
-      <c r="L3" t="n">
-        <v>237</v>
-      </c>
-      <c r="M3" t="n">
-        <v>238</v>
-      </c>
-      <c r="N3" t="n">
-        <v>238</v>
-      </c>
-      <c r="O3" t="n">
-        <v>267</v>
-      </c>
-      <c r="P3" t="n">
-        <v>260</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>272</v>
-      </c>
-      <c r="R3" t="n">
-        <v>52</v>
-      </c>
-      <c r="S3" t="n">
-        <v>51</v>
-      </c>
-      <c r="T3" t="n">
-        <v>290</v>
-      </c>
-      <c r="U3" t="n">
-        <v>52</v>
-      </c>
-      <c r="V3" t="n">
-        <v>294</v>
-      </c>
-      <c r="W3" t="n">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>272</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>294</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>260</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -901,66 +841,6 @@
           <t>SHEN.SI</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>18.9563206760742</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18.5838497391359</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32.9607843137254</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>612.5382629703404</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6811.803958203604</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12.262736671</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.414616995</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.109987716050481</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.741344681167901</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5.219483564</v>
-      </c>
-      <c r="U4" t="n">
-        <v>12.8782540341387</v>
-      </c>
-      <c r="V4" t="n">
-        <v>673776066.397593</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13.1830914656756</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.1348687330275244</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.033198205</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5686195009434</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -974,66 +854,6 @@
       <c r="D5" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1050,9 +870,63 @@
       <c r="F6" t="n">
         <v>2019.34693877551</v>
       </c>
+      <c r="G6" t="n">
+        <v>48.3436898471683</v>
+      </c>
+      <c r="H6" t="n">
+        <v>42.93699873937364</v>
+      </c>
+      <c r="I6" t="n">
+        <v>48.49055426504608</v>
+      </c>
+      <c r="J6" t="n">
+        <v>52.70447787809864</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2407.262708239891</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2426.960880160337</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2717.543403275555</v>
+      </c>
+      <c r="N6" t="n">
+        <v>154397.1234062055</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.33389643857483</v>
+      </c>
+      <c r="P6" t="n">
+        <v>17.37412241208274</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>82.19905607144214</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8584311403732222</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.661922958745513</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.972326062666207</v>
+      </c>
+      <c r="U6" t="n">
+        <v>26.18777622851844</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6908805137.07477</v>
+      </c>
+      <c r="W6" t="n">
+        <v>27.51716344048013</v>
+      </c>
       <c r="X6" t="n">
         <v>0.04044921691954253</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.08024453236167123</v>
+      </c>
       <c r="Z6" t="n">
         <v>0.07920694223676443</v>
       </c>
@@ -1062,6 +936,9 @@
       <c r="AB6" t="n">
         <v>2.302684791815139e-17</v>
       </c>
+      <c r="AC6" t="n">
+        <v>2.767140727173219</v>
+      </c>
       <c r="AD6" t="n">
         <v>2.767140727173219</v>
       </c>
@@ -1071,6 +948,9 @@
       <c r="AF6" t="n">
         <v>3.92731954289171e-17</v>
       </c>
+      <c r="AG6" t="n">
+        <v>22.2725576081287</v>
+      </c>
       <c r="AH6" t="n">
         <v>21.09904736633759</v>
       </c>
@@ -1111,9 +991,63 @@
       <c r="F7" t="n">
         <v>1.642661044409033</v>
       </c>
+      <c r="G7" t="n">
+        <v>17.16147464662168</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.70901205442084</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.91038928922768</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22.69754271402129</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1910.874363925357</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1769.776694781962</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1684.119621374067</v>
+      </c>
+      <c r="N7" t="n">
+        <v>129965.4632746056</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.943481437683465</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35.19920109302316</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>859.3073582744092</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3777431378329725</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.305782261164173</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.734407333577249</v>
+      </c>
+      <c r="U7" t="n">
+        <v>19.36566613006569</v>
+      </c>
+      <c r="V7" t="n">
+        <v>11761719015.21445</v>
+      </c>
+      <c r="W7" t="n">
+        <v>25.77032520041962</v>
+      </c>
       <c r="X7" t="n">
         <v>0.8941984880621843</v>
       </c>
+      <c r="Y7" t="n">
+        <v>0.06852723214106546</v>
+      </c>
       <c r="Z7" t="n">
         <v>0.0276736527485247</v>
       </c>
@@ -1123,6 +1057,9 @@
       <c r="AB7" t="n">
         <v>0.9022895289495743</v>
       </c>
+      <c r="AC7" t="n">
+        <v>3.073625885602018</v>
+      </c>
       <c r="AD7" t="n">
         <v>1.9834855337538</v>
       </c>
@@ -1132,6 +1069,9 @@
       <c r="AF7" t="n">
         <v>0.9069319694826203</v>
       </c>
+      <c r="AG7" t="n">
+        <v>73.63039604550032</v>
+      </c>
       <c r="AH7" t="n">
         <v>32.02895006274117</v>
       </c>
@@ -1172,9 +1112,63 @@
       <c r="F8" t="n">
         <v>2017</v>
       </c>
+      <c r="G8" t="n">
+        <v>10.3020035377314</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.96888175065247</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.04954954954955</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.88426290172922</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1093.364789999466</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.745169718272074</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.86292715346454</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.06247586302255</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.001413338582652</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-15.065971452</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8.71281742681019</v>
+      </c>
+      <c r="V8" t="n">
+        <v>141908221.736258</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.68223590341081</v>
+      </c>
       <c r="X8" t="n">
         <v>-3.188790834623051</v>
       </c>
+      <c r="Y8" t="n">
+        <v>7.078209147174905e-05</v>
+      </c>
       <c r="Z8" t="n">
         <v>0.01114851804596183</v>
       </c>
@@ -1184,6 +1178,9 @@
       <c r="AB8" t="n">
         <v>-1.878724185754592</v>
       </c>
+      <c r="AC8" t="n">
+        <v>0.031542391616566</v>
+      </c>
       <c r="AD8" t="n">
         <v>0.139767077</v>
       </c>
@@ -1193,6 +1190,9 @@
       <c r="AF8" t="n">
         <v>-1.480442536256032</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.06676437641096522</v>
+      </c>
       <c r="AH8" t="n">
         <v>0.5198309857967301</v>
       </c>
@@ -1233,9 +1233,63 @@
       <c r="F9" t="n">
         <v>2018</v>
       </c>
+      <c r="G9" t="n">
+        <v>35.31561971254833</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23.03394184904595</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34.52821320855253</v>
+      </c>
+      <c r="J9" t="n">
+        <v>35.28173510278123</v>
+      </c>
+      <c r="K9" t="n">
+        <v>853.3856318232822</v>
+      </c>
+      <c r="L9" t="n">
+        <v>890.1100922164812</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1369.587820076888</v>
+      </c>
+      <c r="N9" t="n">
+        <v>44046.65264847894</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.60625</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.119856057319669</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10.560535286</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6398918030292789</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.452307957022013</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.481610028775</v>
+      </c>
+      <c r="U9" t="n">
+        <v>16.7236466118598</v>
+      </c>
+      <c r="V9" t="n">
+        <v>888541699.6894521</v>
+      </c>
+      <c r="W9" t="n">
+        <v>18.2679219130421</v>
+      </c>
       <c r="X9" t="n">
         <v>-0.1888402708524212</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.04412667376794756</v>
+      </c>
       <c r="Z9" t="n">
         <v>0.0614971505255046</v>
       </c>
@@ -1245,6 +1299,9 @@
       <c r="AB9" t="n">
         <v>-0.5603413259370957</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0.8053139934798538</v>
+      </c>
       <c r="AD9" t="n">
         <v>1.39044304798704</v>
       </c>
@@ -1254,6 +1311,9 @@
       <c r="AF9" t="n">
         <v>-0.6975993492159659</v>
       </c>
+      <c r="AG9" t="n">
+        <v>2.623179182637529</v>
+      </c>
       <c r="AH9" t="n">
         <v>8.508409801385156</v>
       </c>
@@ -1294,9 +1354,63 @@
       <c r="F10" t="n">
         <v>2019</v>
       </c>
+      <c r="G10" t="n">
+        <v>48.641297233402</v>
+      </c>
+      <c r="H10" t="n">
+        <v>40.87287419410555</v>
+      </c>
+      <c r="I10" t="n">
+        <v>48.3022370800429</v>
+      </c>
+      <c r="J10" t="n">
+        <v>54.7248857801159</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1850.039300710159</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2218.393380161163</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2569.4559280577</v>
+      </c>
+      <c r="N10" t="n">
+        <v>115084.1789179667</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10.1644475225559</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15.6640487231732</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.871722244882923</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.6689679885847239</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.271491717</v>
+      </c>
+      <c r="U10" t="n">
+        <v>20.3795031816288</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2006301764.7774</v>
+      </c>
+      <c r="W10" t="n">
+        <v>21.657082377917</v>
+      </c>
       <c r="X10" t="n">
         <v>-0.0251811866301597</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.06384394972145617</v>
+      </c>
       <c r="Z10" t="n">
         <v>0.0792373258649301</v>
       </c>
@@ -1306,6 +1420,9 @@
       <c r="AB10" t="n">
         <v>-0.2132364769681242</v>
       </c>
+      <c r="AC10" t="n">
+        <v>1.647846535</v>
+      </c>
       <c r="AD10" t="n">
         <v>1.750086023374863</v>
       </c>
@@ -1315,6 +1432,9 @@
       <c r="AF10" t="n">
         <v>-0.2970113184453392</v>
       </c>
+      <c r="AG10" t="n">
+        <v>7.044884615320818</v>
+      </c>
       <c r="AH10" t="n">
         <v>9.657879588400544</v>
       </c>
@@ -1355,9 +1475,63 @@
       <c r="F11" t="n">
         <v>2021</v>
       </c>
+      <c r="G11" t="n">
+        <v>62.51485132655755</v>
+      </c>
+      <c r="H11" t="n">
+        <v>62.53446260842355</v>
+      </c>
+      <c r="I11" t="n">
+        <v>62.7283928166508</v>
+      </c>
+      <c r="J11" t="n">
+        <v>68.23965141612197</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3885.23083918973</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3613.386255954538</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3817.096439811206</v>
+      </c>
+      <c r="N11" t="n">
+        <v>244315.3523009635</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.9275</v>
+      </c>
+      <c r="P11" t="n">
+        <v>17.61055795925</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>22.66210191</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.13712072991543</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.860110120800776</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.3692958015</v>
+      </c>
+      <c r="U11" t="n">
+        <v>31.4613034542723</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7159835140.950863</v>
+      </c>
+      <c r="W11" t="n">
+        <v>32.1906132064199</v>
+      </c>
       <c r="X11" t="n">
         <v>0.1299848697476214</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.09469218619755916</v>
+      </c>
       <c r="Z11" t="n">
         <v>0.09427133052873458</v>
       </c>
@@ -1367,6 +1541,9 @@
       <c r="AB11" t="n">
         <v>0.5559725202584935</v>
       </c>
+      <c r="AC11" t="n">
+        <v>3.53125050266558</v>
+      </c>
       <c r="AD11" t="n">
         <v>4.534110492333333</v>
       </c>
@@ -1376,6 +1553,9 @@
       <c r="AF11" t="n">
         <v>0.7071067811865475</v>
       </c>
+      <c r="AG11" t="n">
+        <v>16.42101713039693</v>
+      </c>
       <c r="AH11" t="n">
         <v>17.47029287194919</v>
       </c>
@@ -1416,9 +1596,63 @@
       <c r="F12" t="n">
         <v>2022</v>
       </c>
+      <c r="G12" t="n">
+        <v>82.0670604173895</v>
+      </c>
+      <c r="H12" t="n">
+        <v>95.1104018863559</v>
+      </c>
+      <c r="I12" t="n">
+        <v>84.35048299428</v>
+      </c>
+      <c r="J12" t="n">
+        <v>97.7378006872852</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7544.707386704818</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7820.196602272073</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7944.860832502553</v>
+      </c>
+      <c r="N12" t="n">
+        <v>552721.8493276552</v>
+      </c>
+      <c r="O12" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>417.816983778207</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14127.867363161</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.04619443595222</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.42094148620397</v>
+      </c>
+      <c r="T12" t="n">
+        <v>72.996943993</v>
+      </c>
+      <c r="U12" t="n">
+        <v>151.057635055307</v>
+      </c>
+      <c r="V12" t="n">
+        <v>65335707786.2141</v>
+      </c>
+      <c r="W12" t="n">
+        <v>207.701129958666</v>
+      </c>
       <c r="X12" t="n">
         <v>5.576445900031164</v>
       </c>
+      <c r="Y12" t="n">
+        <v>0.5367896421179276</v>
+      </c>
       <c r="Z12" t="n">
         <v>0.1621420165072188</v>
       </c>
@@ -1428,6 +1662,9 @@
       <c r="AB12" t="n">
         <v>2.796075417706945</v>
       </c>
+      <c r="AC12" t="n">
+        <v>26.1724181013647</v>
+      </c>
       <c r="AD12" t="n">
         <v>8.35793961669302</v>
       </c>
@@ -1436,6 +1673,9 @@
       </c>
       <c r="AF12" t="n">
         <v>2.684087868741421</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>753.928225797619</v>
       </c>
       <c r="AH12" t="n">
         <v>163.3580097921393</v>
